--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_summary_Lineal_No_Estacionario_ARIMA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Modelo</t>
   </si>
@@ -40,12 +40,12 @@
     <t>Block Bootstrapping</t>
   </si>
   <si>
+    <t>MCPS</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
-    <t>MCPS</t>
-  </si>
-  <si>
     <t>DeepAR</t>
   </si>
   <si>
@@ -61,13 +61,10 @@
     <t>6/10</t>
   </si>
   <si>
-    <t>4/10</t>
-  </si>
-  <si>
     <t>3/10</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>1/10</t>
   </si>
   <si>
     <t>0/10</t>
@@ -476,7 +473,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>102.4</v>
+        <v>76.8</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -493,7 +490,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>102.4</v>
+        <v>76.8</v>
       </c>
       <c r="D4">
         <v>60</v>
@@ -510,13 +507,13 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>76.8</v>
+        <v>25.6</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E5">
-        <v>2.89488124401165</v>
+        <v>2.789165874121422</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -527,13 +524,13 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>51.2</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>2.789165874121422</v>
+        <v>2.89488124401165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -541,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -558,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -575,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -592,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>0</v>
